--- a/biology/Médecine/Foramen_pariétal/Foramen_pariétal.xlsx
+++ b/biology/Médecine/Foramen_pariétal/Foramen_pariétal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Foramen_pari%C3%A9tal</t>
+          <t>Foramen_pariétal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le foramen pariétal (ou trou pariétal) est un orifice de l'os pariétal prés de son bord sagittal et légèrement en avant de son bord postérieur. Il s'ouvre dans la cavité crânienne et permet le passage de la veine émissaire pariétale qui se déverse dans le sinus sagittal supérieur.
 </t>
